--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.plant-associated.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.plant-associated.4.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -121,7 +121,7 @@
             <family val="2"/>
           </rPr>
           <t>Organism group
-Identification of the specific individual</t>
+Identification or description of the specific individual from which this sample was obtained</t>
         </r>
       </text>
     </comment>
@@ -135,7 +135,21 @@
             <family val="2"/>
           </rPr>
           <t>Organism group
-Cultivar name</t>
+Cultivar name - cultivated variety of plant</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Organism group
+a population within a given species displaying genetically based, phenotypic traits that reflect adaptation to a local habitat, e.g., Columbia</t>
         </r>
       </text>
     </comment>
@@ -148,7 +162,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -161,7 +175,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -174,7 +188,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the local environment.</t>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -187,7 +201,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event.</t>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -200,7 +214,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
         </r>
       </text>
     </comment>
@@ -213,7 +227,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained</t>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
         </r>
       </text>
     </comment>
@@ -226,7 +240,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Pubmed ID, DOI or URL of publication for isolation and growth condition specifications of the organism/material</t>
+          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
         </r>
       </text>
     </comment>
@@ -239,7 +253,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>
@@ -252,7 +266,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving an exposure to varying temperatures</t>
+          <t>information about treatment involving an exposure to varying temperatures; should include the temperature, treatment duration, interval and total experimental duration; can include different temperature regimens</t>
         </r>
       </text>
     </comment>
@@ -278,7 +292,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving antibiotic administration</t>
+          <t>information about treatment involving antibiotic administration; should include the name of antibiotic, amount administered, treatment duration, interval and total experimental duration; can include multiple antibiotic regimens</t>
         </r>
       </text>
     </comment>
@@ -291,7 +305,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Free-living or from host</t>
+          <t>Free-living or from host (define relationship)</t>
         </r>
       </text>
     </comment>
@@ -304,7 +318,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>list of chemical compounds administered to the host or site where sampling occurred, and when</t>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
         </r>
       </text>
     </comment>
@@ -317,7 +331,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>treatment involving use of mutagens</t>
+          <t>treatment involving use of mutagens; should include the name of mutagen, amount administered, treatment duration, interval and total experimental duration; can include multiple mutagen regimens</t>
         </r>
       </text>
     </comment>
@@ -330,7 +344,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>treatment involving an exposure to a particular climate</t>
+          <t>treatment involving an exposure to a particular climate; can include multiple climates</t>
         </r>
       </text>
     </comment>
@@ -343,7 +357,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Depth is defined as the vertical distance below local surface. Depth can be reported as an interval for subsurface samples.</t>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
         </r>
       </text>
     </comment>
@@ -382,7 +396,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving the use of fertilizers</t>
+          <t>information about treatment involving the use of fertilizers; should include the name fertilizer, amount administered, treatment duration, interval and total experimental duration; can include multiple fertilizer regimens</t>
         </r>
       </text>
     </comment>
@@ -395,7 +409,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving use of fungicides</t>
+          <t>information about treatment involving use of fungicides; should include the name of fungicide, amount administered, treatment duration, interval and total experimental duration; can include multiple fungicide regimens</t>
         </r>
       </text>
     </comment>
@@ -408,7 +422,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>use of conditions with differing gaseous environments</t>
+          <t>use of conditions with differing gaseous environments; should include the name of gaseous compound, amount administered, treatment duration, interval and total experimental duration; can include multiple gaseous environment regimens</t>
         </r>
       </text>
     </comment>
@@ -421,7 +435,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving use of gravity factor to study various types of responses in presence, absence or modified levels of gravity</t>
+          <t>information about treatment involving use of gravity factor to study various types of responses in presence, absence or modified levels of gravity; can include multiple treatments</t>
         </r>
       </text>
     </comment>
@@ -434,7 +448,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving use of growth hormones</t>
+          <t>information about treatment involving use of growth hormones; should include the name of growth hormone, amount administered, treatment duration, interval and total experimental duration; can include multiple growth hormone regimens</t>
         </r>
       </text>
     </comment>
@@ -460,7 +474,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving use of herbicides</t>
+          <t>information about treatment involving use of herbicides; information about treatment involving use of growth hormones; should include the name of herbicide, amount administered, treatment duration, interval and total experimental duration; can include multiple regimens</t>
         </r>
       </text>
     </comment>
@@ -473,7 +487,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Age of host</t>
+          <t>Age of host at the time of sampling</t>
         </r>
       </text>
     </comment>
@@ -486,7 +500,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Name of relevant disease</t>
+          <t>Name of relevant disease, e.g. Salmonella gastroenteritis. For the controlled vocabulary, please see Human Disease Ontology, http://bioportal.bioontology.org/ontologies/1009 or MeSH, http://www.ncbi.nlm.nih.gov/mesh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of dry mass</t>
         </r>
       </text>
     </comment>
@@ -503,6 +530,58 @@
         </r>
       </text>
     </comment>
+    <comment ref="AO13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>taxonomic information subspecies level</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>taxonomic rank information below subspecies level, such as variety, form, rank etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the length of subject</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>description of host life stage</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AT13" authorId="0">
       <text>
         <r>
@@ -512,7 +591,33 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI taxonomy ID of the host</t>
+          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total mass of the host at collection, the unit depends on host</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of wet mass</t>
         </r>
       </text>
     </comment>
@@ -525,7 +630,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving an exposure to varying degree of humidity</t>
+          <t>information about treatment involving an exposure to varying degree of humidity; information about treatment involving use of growth hormones; should include amount of humidity administered, treatment duration, interval and total experimental duration; can include multiple regimens</t>
         </r>
       </text>
     </comment>
@@ -538,7 +643,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -551,7 +656,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about any mechanical damage exerted on the plant</t>
+          <t>information about any mechanical damage exerted on the plant; can include multiple damages and sites</t>
         </r>
       </text>
     </comment>
@@ -564,7 +669,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving the use of mineral supplements</t>
+          <t>information about treatment involving the use of mineral supplements; should include the name of mineral nutrient, amount administered, treatment duration, interval and total experimental duration; can include multiple mineral nutrient regimens</t>
         </r>
       </text>
     </comment>
@@ -590,7 +695,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving the exposure of plant to non-mineral nutrient such as oxygen, hydrogen or carbon</t>
+          <t>information about treatment involving the exposure of plant to non-mineral nutrient such as oxygen, hydrogen or carbon; should include the name of non-mineral nutrient, amount administered, treatment duration, interval and total experimental duration; can include multiple non-mineral nutrient regimens</t>
         </r>
       </text>
     </comment>
@@ -603,7 +708,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count</t>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
         </r>
       </text>
     </comment>
@@ -629,7 +734,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred</t>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
         </r>
       </text>
     </comment>
@@ -642,7 +747,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving use of insecticides</t>
+          <t>information about treatment involving use of insecticides; should include the name of pesticide, amount administered, treatment duration, interval and total experimental duration; can include multiple pesticide regimens</t>
         </r>
       </text>
     </comment>
@@ -655,7 +760,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving exposure of plants to varying levels of pH of the growth media</t>
+          <t>information about treatment involving exposure of plants to varying levels of pH of the growth media; can include multiple regimen</t>
         </r>
       </text>
     </comment>
@@ -668,7 +773,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>name of body site that the sample was obtained from</t>
+          <t>name of body site that the sample was obtained from. For Plant Ontology (PO) (v 20) terms, see http://purl.bioontology.org/ontology/PO</t>
         </r>
       </text>
     </comment>
@@ -681,7 +786,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>substance produced by the plant</t>
+          <t>substance produced by the plant, where the sample was obtained from</t>
         </r>
       </text>
     </comment>
@@ -694,7 +799,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving exposure of plant or a plant part to a particular radiation regimen</t>
+          <t>information about treatment involving exposure of plant or a plant part to a particular radiation regimen; should include the radiation type, amount or intensity administered, treatment duration, interval and total experimental duration; can include multiple radiation regimens</t>
         </r>
       </text>
     </comment>
@@ -707,7 +812,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving an exposure to a given amount of rainfall</t>
+          <t>information about treatment involving an exposure to a given amount of rainfall; can include multiple regimens</t>
         </r>
       </text>
     </comment>
@@ -733,7 +838,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving use of salts as supplement to liquid and soil growth media</t>
+          <t>information about treatment involving use of salts as supplement to liquid and soil growth media; should include the name of salt, amount administered, treatment duration, interval and total experimental duration; can include multiple salt regimens</t>
         </r>
       </text>
     </comment>
@@ -863,7 +968,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>
@@ -876,7 +981,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>treatment involving an exposure to standing water during a plant's life span, types can be flood water or standing water</t>
+          <t>treatment involving an exposure to standing water during a plant's life span, types can be flood water or standing water; can include multiple regimens</t>
         </r>
       </text>
     </comment>
@@ -902,7 +1007,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>temperature of the sample</t>
+          <t>temperature of the sample at time of sampling</t>
         </r>
       </text>
     </comment>
@@ -941,7 +1046,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving an exposure to water with varying degree of temperature</t>
+          <t>information about treatment involving an exposure to water with varying degree of temperature; can include multiple regimens</t>
         </r>
       </text>
     </comment>
@@ -954,7 +1059,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>information about treatment involving an exposure to watering frequencies</t>
+          <t>information about treatment involving an exposure to watering frequencies; can include multiple regimens</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.plant-associated.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.plant-associated.4.0.xlsx
@@ -378,6 +378,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -462,7 +465,7 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.plant-associated.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.plant-associated.4.0.xlsx
@@ -257,12 +257,818 @@
         </r>
       </text>
     </comment>
+    <comment ref="S15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving an exposure to varying temperatures; should include the temperature, treatment duration, interval and total experimental duration; can include different temperature regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The altitude of the sample is the vertical distance between Earth's surface above Sea Level and the sampled position in the air.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving antibiotic administration; should include the name of antibiotic, amount administered, treatment duration, interval and total experimental duration; can include multiple antibiotic regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-living or from host (define relationship)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>treatment involving use of mutagens; should include the name of mutagen, amount administered, treatment duration, interval and total experimental duration; can include multiple mutagen regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>treatment involving an exposure to a particular climate; can include multiple climates</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The elevation of the sampling site as measured by the vertical distance from mean sea level.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Plasmids that have significance phenotypic consequence</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving the use of fertilizers; should include the name fertilizer, amount administered, treatment duration, interval and total experimental duration; can include multiple fertilizer regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving use of fungicides; should include the name of fungicide, amount administered, treatment duration, interval and total experimental duration; can include multiple fungicide regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>use of conditions with differing gaseous environments; should include the name of gaseous compound, amount administered, treatment duration, interval and total experimental duration; can include multiple gaseous environment regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving use of gravity factor to study various types of responses in presence, absence or modified levels of gravity; can include multiple treatments</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving use of growth hormones; should include the name of growth hormone, amount administered, treatment duration, interval and total experimental duration; can include multiple growth hormone regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about growth media for growing the plants or tissue cultured samples</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving use of herbicides; information about treatment involving use of growth hormones; should include the name of herbicide, amount administered, treatment duration, interval and total experimental duration; can include multiple regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Age of host at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of relevant disease, e.g. Salmonella gastroenteritis. For the controlled vocabulary, please see Human Disease Ontology, http://bioportal.bioontology.org/ontologies/1009 or MeSH, http://www.ncbi.nlm.nih.gov/mesh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of dry mass</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the height of subject</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>taxonomic information subspecies level</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>taxonomic rank information below subspecies level, such as variety, form, rank etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the length of subject</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>description of host life stage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total mass of the host at collection, the unit depends on host</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of wet mass</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving an exposure to varying degree of humidity; information about treatment involving use of growth hormones; should include amount of humidity administered, treatment duration, interval and total experimental duration; can include multiple regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about any mechanical damage exerted on the plant; can include multiple damages and sites</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving the use of mineral supplements; should include the name of mineral nutrient, amount administered, treatment duration, interval and total experimental duration; can include multiple mineral nutrient regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>any other measurement performed or parameter collected, that is not listed here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving the exposure of plant to non-mineral nutrient such as oxygen, hydrogen or carbon; should include the name of non-mineral nutrient, amount administered, treatment duration, interval and total experimental duration; can include multiple non-mineral nutrient regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>oxygenation status of sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving use of insecticides; should include the name of pesticide, amount administered, treatment duration, interval and total experimental duration; can include multiple pesticide regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving exposure of plants to varying levels of pH of the growth media; can include multiple regimen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>name of body site that the sample was obtained from. For Plant Ontology (PO) (v 20) terms, see http://purl.bioontology.org/ontology/PO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>substance produced by the plant, where the sample was obtained from</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving exposure of plant or a plant part to a particular radiation regimen; should include the radiation type, amount or intensity administered, treatment duration, interval and total experimental duration; can include multiple radiation regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving an exposure to a given amount of rainfall; can include multiple regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aerobic or anaerobic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving use of salts as supplement to liquid and soil growth media; should include the name of salt, amount administered, treatment duration, interval and total experimental duration; can include multiple salt regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>salinity of sample, i.e. measure of total salt concentration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>duration for which sample was stored</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>location at which sample was stored, usually name of a specific freezer/room</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature at which sample was stored, e.g. -80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>treatment involving an exposure to a particular season (e.g. winter, summer, rabi, rainy etc.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>treatment involving an exposure to standing water during a plant's life span, types can be flood water or standing water; can include multiple regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the sample at time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>description of plant tissue culture growth media used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Feeding position in food chain (eg., chemolithotroph)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving an exposure to water with varying degree of temperature; can include multiple regimens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>information about treatment involving an exposure to watering frequencies; can include multiple regimens</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMARKS: specimen, plant-associated; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -372,6 +1178,198 @@
   </si>
   <si>
     <t>lat_lon</t>
+  </si>
+  <si>
+    <t>air_temp_regm</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>antibiotic_regm</t>
+  </si>
+  <si>
+    <t>biotic_relationship</t>
+  </si>
+  <si>
+    <t>chem_administration</t>
+  </si>
+  <si>
+    <t>chem_mutagen</t>
+  </si>
+  <si>
+    <t>climate_environment</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+  <si>
+    <t>extrachrom_elements</t>
+  </si>
+  <si>
+    <t>fertilizer_regm</t>
+  </si>
+  <si>
+    <t>fungicide_regm</t>
+  </si>
+  <si>
+    <t>gaseous_environment</t>
+  </si>
+  <si>
+    <t>gravity</t>
+  </si>
+  <si>
+    <t>growth_hormone_regm</t>
+  </si>
+  <si>
+    <t>growth_med</t>
+  </si>
+  <si>
+    <t>herbicide_regm</t>
+  </si>
+  <si>
+    <t>host_age</t>
+  </si>
+  <si>
+    <t>host_disease</t>
+  </si>
+  <si>
+    <t>host_dry_mass</t>
+  </si>
+  <si>
+    <t>host_genotype</t>
+  </si>
+  <si>
+    <t>host_height</t>
+  </si>
+  <si>
+    <t>host_infra_specific_name</t>
+  </si>
+  <si>
+    <t>host_infra_specific_rank</t>
+  </si>
+  <si>
+    <t>host_length</t>
+  </si>
+  <si>
+    <t>host_life_stage</t>
+  </si>
+  <si>
+    <t>host_phenotype</t>
+  </si>
+  <si>
+    <t>host_taxid</t>
+  </si>
+  <si>
+    <t>host_tot_mass</t>
+  </si>
+  <si>
+    <t>host_wet_mass</t>
+  </si>
+  <si>
+    <t>humidity_regm</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>mechanical_damage</t>
+  </si>
+  <si>
+    <t>mineral_nutr_regm</t>
+  </si>
+  <si>
+    <t>misc_param</t>
+  </si>
+  <si>
+    <t>non_mineral_nutr_regm</t>
+  </si>
+  <si>
+    <t>organism_count</t>
+  </si>
+  <si>
+    <t>oxy_stat_samp</t>
+  </si>
+  <si>
+    <t>perturbation</t>
+  </si>
+  <si>
+    <t>pesticide_regm</t>
+  </si>
+  <si>
+    <t>ph_regm</t>
+  </si>
+  <si>
+    <t>plant_body_site</t>
+  </si>
+  <si>
+    <t>plant_product</t>
+  </si>
+  <si>
+    <t>radiation_regm</t>
+  </si>
+  <si>
+    <t>rainfall_regm</t>
+  </si>
+  <si>
+    <t>rel_to_oxygen</t>
+  </si>
+  <si>
+    <t>salt_regm</t>
+  </si>
+  <si>
+    <t>samp_collect_device</t>
+  </si>
+  <si>
+    <t>samp_mat_process</t>
+  </si>
+  <si>
+    <t>samp_salinity</t>
+  </si>
+  <si>
+    <t>samp_size</t>
+  </si>
+  <si>
+    <t>samp_store_dur</t>
+  </si>
+  <si>
+    <t>samp_store_loc</t>
+  </si>
+  <si>
+    <t>samp_store_temp</t>
+  </si>
+  <si>
+    <t>samp_vol_we_dna_ext</t>
+  </si>
+  <si>
+    <t>season_environment</t>
+  </si>
+  <si>
+    <t>source_material_id</t>
+  </si>
+  <si>
+    <t>standing_water_regm</t>
+  </si>
+  <si>
+    <t>subspecf_gen_lin</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>tiss_cult_growth_med</t>
+  </si>
+  <si>
+    <t>trophic_level</t>
+  </si>
+  <si>
+    <t>water_temp_regm</t>
+  </si>
+  <si>
+    <t>watering_regm</t>
   </si>
 </sst>
 </file>
@@ -792,77 +1790,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:82">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:82">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="3" customFormat="1">
+    <row r="3" spans="1:82" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="4" customFormat="1">
+    <row r="4" spans="1:82" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="5" customFormat="1">
+    <row r="5" spans="1:82" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:82">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:82">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:82">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:82">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:82">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:82">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:82">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:82">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:82">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:82">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -916,6 +1914,198 @@
       </c>
       <c r="R15" s="7" t="s">
         <v>31</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BU15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="BW15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="BX15" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="BY15" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="BZ15" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB15" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="CC15" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="CD15" s="8" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.plant-associated.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.plant-associated.4.0.xlsx
@@ -981,11 +981,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Identifier for the physical specimen. Use format: "[&lt;institution-code&gt;:[&lt;collection-code&gt;:]]&lt;specimen_id&gt;", eg, "UAM:Mamm:52179". Intended as a reference to the physical specimen that remains after it was analyzed. If the specimen was destroyed in the process of analysis, electronic images (e-vouchers) are an adequate substitute for a physical voucher specimen. Ideally the specimens will be deposited in a curated museum, herbarium, or frozen tissue collection, but often they will remain in a personal or laboratory collection for some time before they are deposited in a curated collection. There are three forms of specimen_voucher qualifiers. If the text of the qualifier includes one or more colons it is a 'structured voucher'. Structured vouchers include institution-codes (and optional collection-codes) taken from a controlled vocabulary maintained by the INSDC that denotes the museum or herbarium collection where the specimen resides, please visit the INSDC website, http://www.insdc.org/controlled-vocabulary-specimenvoucher-qualifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>treatment involving an exposure to standing water during a plant's life span, types can be flood water or standing water; can include multiple regimens</t>
         </r>
       </text>
     </comment>
-    <comment ref="BY15" authorId="0">
+    <comment ref="BZ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -998,7 +1011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BZ15" authorId="0">
+    <comment ref="CA15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1011,7 +1024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CA15" authorId="0">
+    <comment ref="CB15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1024,7 +1037,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CB15" authorId="0">
+    <comment ref="CC15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1037,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CC15" authorId="0">
+    <comment ref="CD15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1050,7 +1063,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="CD15" authorId="0">
+    <comment ref="CE15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1068,7 +1081,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMARKS: specimen, plant-associated; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -1349,6 +1362,9 @@
   </si>
   <si>
     <t>source_material_id</t>
+  </si>
+  <si>
+    <t>specimen_voucher</t>
   </si>
   <si>
     <t>standing_water_regm</t>
@@ -1790,77 +1806,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82">
+    <row r="1" spans="1:83">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:82">
+    <row r="2" spans="1:83">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:82" s="3" customFormat="1">
+    <row r="3" spans="1:83" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:82" s="4" customFormat="1">
+    <row r="4" spans="1:83" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:82" s="5" customFormat="1">
+    <row r="5" spans="1:83" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:82">
+    <row r="6" spans="1:83">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:82">
+    <row r="7" spans="1:83">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:82">
+    <row r="8" spans="1:83">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:82">
+    <row r="9" spans="1:83">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:82">
+    <row r="10" spans="1:83">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:82">
+    <row r="11" spans="1:83">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:82">
+    <row r="12" spans="1:83">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:82">
+    <row r="13" spans="1:83">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:82">
+    <row r="14" spans="1:83">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:82">
+    <row r="15" spans="1:83">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2106,6 +2122,9 @@
       </c>
       <c r="CD15" s="8" t="s">
         <v>95</v>
+      </c>
+      <c r="CE15" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
